--- a/data/data_monitoreo_huambocancha_alta.xlsx
+++ b/data/data_monitoreo_huambocancha_alta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,131 +448,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LINARES PEREZ YANASELY</t>
+          <t>INCIO SANCHEZ PAOLA KATHERINE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MEDINA TAPIA ANA YULI</t>
+          <t>GUEVARA IDROGO DENNIS PERCY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PEREZ LINARES TATHIANA</t>
+          <t>TANTALEAN BUSTAMANTE ESTALIN YOEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAMPOS PEREZ YOVERLY</t>
+          <t>HUAYHUA VALDIVIA LUZ EXMILDA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INCIO SANCHEZ PAOLA KATHERINE</t>
+          <t>CAMPOS PEREZ YOVERLY</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MONDRAGON HERNANDEZ WILMER JUNIOR</t>
+          <t>DELGADO VASQUEZ FLOR MAGALY</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOTO LOZANO LUZDINA</t>
+          <t>MEDINA TAPIA ANA YULI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GUEVARA IDROGO DENNIS PERCY</t>
+          <t>LINARES PEREZ YANASELY</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HUAYHUA VALDIVIA LUZ EXMILDA</t>
+          <t>PEREZ LINARES TATHIANA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TANTALEAN BUSTAMANTE ESTALIN YOEL</t>
+          <t>LOZADA ROJAS LUZ ELENA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DELGADO VASQUEZ FLOR MAGALY</t>
+          <t>CHAVEZ VILLANUEVA SILVIA JANETH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHAVEZ VILLANUEVA SILVIA JANETH</t>
+          <t>MONDRAGON HERNANDEZ WILMER JUNIOR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LOZADA ROJAS LUZ ELENA</t>
+          <t>SOTO LOZANO LUZDINA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>VASQUEZ SILVA ALOIS ADOLF</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_huambocancha_alta.xlsx
+++ b/data/data_monitoreo_huambocancha_alta.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -482,17 +482,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CAMPOS PEREZ YOVERLY</t>
+          <t>LOZADA ROJAS LUZ ELENA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -502,17 +502,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MEDINA TAPIA ANA YULI</t>
+          <t>VASQUEZ SILVA ALOIS ADOLF</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -522,47 +522,47 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PEREZ LINARES TATHIANA</t>
+          <t>MEDINA TAPIA ANA YULI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LOZADA ROJAS LUZ ELENA</t>
+          <t>CHAVEZ VILLANUEVA SILVIA JANETH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHAVEZ VILLANUEVA SILVIA JANETH</t>
+          <t>CAMPOS PEREZ YOVERLY</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MONDRAGON HERNANDEZ WILMER JUNIOR</t>
+          <t>PEREZ LINARES TATHIANA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
@@ -572,17 +572,17 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VASQUEZ SILVA ALOIS ADOLF</t>
+          <t>MONDRAGON HERNANDEZ WILMER JUNIOR</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_huambocancha_alta.xlsx
+++ b/data/data_monitoreo_huambocancha_alta.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -482,57 +482,57 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LOZADA ROJAS LUZ ELENA</t>
+          <t>DELGADO VASQUEZ FLOR MAGALY</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DELGADO VASQUEZ FLOR MAGALY</t>
+          <t>LINARES PEREZ YANASELY</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VASQUEZ SILVA ALOIS ADOLF</t>
+          <t>MEDINA TAPIA ANA YULI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LINARES PEREZ YANASELY</t>
+          <t>LOZADA ROJAS LUZ ELENA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MEDINA TAPIA ANA YULI</t>
+          <t>CAMPOS PEREZ YOVERLY</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -542,17 +542,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CAMPOS PEREZ YOVERLY</t>
+          <t>VASQUEZ SILVA ALOIS ADOLF</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -562,27 +562,27 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOTO LOZANO LUZDINA</t>
+          <t>MONDRAGON HERNANDEZ WILMER JUNIOR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MONDRAGON HERNANDEZ WILMER JUNIOR</t>
+          <t>SOTO LOZANO LUZDINA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_huambocancha_alta.xlsx
+++ b/data/data_monitoreo_huambocancha_alta.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -482,37 +482,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DELGADO VASQUEZ FLOR MAGALY</t>
+          <t>LINARES PEREZ YANASELY</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LINARES PEREZ YANASELY</t>
+          <t>MEDINA TAPIA ANA YULI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MEDINA TAPIA ANA YULI</t>
+          <t>PEREZ LINARES TATHIANA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -522,43 +522,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CAMPOS PEREZ YOVERLY</t>
+          <t>CHAVEZ VILLANUEVA SILVIA JANETH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHAVEZ VILLANUEVA SILVIA JANETH</t>
+          <t>MONDRAGON HERNANDEZ WILMER JUNIOR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VASQUEZ SILVA ALOIS ADOLF</t>
+          <t>DELGADO VASQUEZ FLOR MAGALY</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PEREZ LINARES TATHIANA</t>
+          <t>CAMPOS PEREZ YOVERLY</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,11 +568,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MONDRAGON HERNANDEZ WILMER JUNIOR</t>
+          <t>VASQUEZ SILVA ALOIS ADOLF</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">

--- a/data/data_monitoreo_huambocancha_alta.xlsx
+++ b/data/data_monitoreo_huambocancha_alta.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MEDINA TAPIA ANA YULI</t>
+          <t>DELGADO VASQUEZ FLOR MAGALY</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -512,13 +512,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LOZADA ROJAS LUZ ELENA</t>
+          <t>MEDINA TAPIA ANA YULI</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,41 +528,41 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHAVEZ VILLANUEVA SILVIA JANETH</t>
+          <t>MONDRAGON HERNANDEZ WILMER JUNIOR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MONDRAGON HERNANDEZ WILMER JUNIOR</t>
+          <t>CAMPOS PEREZ YOVERLY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DELGADO VASQUEZ FLOR MAGALY</t>
+          <t>CHAVEZ VILLANUEVA SILVIA JANETH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CAMPOS PEREZ YOVERLY</t>
+          <t>LOZADA ROJAS LUZ ELENA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_huambocancha_alta.xlsx
+++ b/data/data_monitoreo_huambocancha_alta.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -492,27 +492,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DELGADO VASQUEZ FLOR MAGALY</t>
+          <t>PEREZ LINARES TATHIANA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PEREZ LINARES TATHIANA</t>
+          <t>MONDRAGON HERNANDEZ WILMER JUNIOR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -522,37 +522,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MONDRAGON HERNANDEZ WILMER JUNIOR</t>
+          <t>CAMPOS PEREZ YOVERLY</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CAMPOS PEREZ YOVERLY</t>
+          <t>CHAVEZ VILLANUEVA SILVIA JANETH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHAVEZ VILLANUEVA SILVIA JANETH</t>
+          <t>DELGADO VASQUEZ FLOR MAGALY</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -562,27 +562,27 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VASQUEZ SILVA ALOIS ADOLF</t>
+          <t>SOTO LOZANO LUZDINA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOTO LOZANO LUZDINA</t>
+          <t>VASQUEZ SILVA ALOIS ADOLF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_huambocancha_alta.xlsx
+++ b/data/data_monitoreo_huambocancha_alta.xlsx
@@ -448,41 +448,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INCIO SANCHEZ PAOLA KATHERINE</t>
+          <t>GUEVARA IDROGO DENNIS PERCY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GUEVARA IDROGO DENNIS PERCY</t>
+          <t>TANTALEAN BUSTAMANTE ESTALIN YOEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TANTALEAN BUSTAMANTE ESTALIN YOEL</t>
+          <t>INCIO SANCHEZ PAOLA KATHERINE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HUAYHUA VALDIVIA LUZ EXMILDA</t>
+          <t>PEREZ LINARES TATHIANA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -492,37 +492,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PEREZ LINARES TATHIANA</t>
+          <t>MONDRAGON HERNANDEZ WILMER JUNIOR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MONDRAGON HERNANDEZ WILMER JUNIOR</t>
+          <t>MEDINA TAPIA ANA YULI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MEDINA TAPIA ANA YULI</t>
+          <t>HUAYHUA VALDIVIA LUZ EXMILDA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -532,27 +532,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHAVEZ VILLANUEVA SILVIA JANETH</t>
+          <t>DELGADO VASQUEZ FLOR MAGALY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DELGADO VASQUEZ FLOR MAGALY</t>
+          <t>CHAVEZ VILLANUEVA SILVIA JANETH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
